--- a/data/trans_dic/P2A_ner_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2A_ner_R-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03286596766392157</v>
+        <v>0.03325149703175176</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03325552412807076</v>
+        <v>0.03222278353584743</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06041420809044408</v>
+        <v>0.06055650128179653</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03507350209618396</v>
+        <v>0.03475183602829374</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05542012665616056</v>
+        <v>0.05542159036014628</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06244016275122699</v>
+        <v>0.061747135567234</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1590270209727009</v>
+        <v>0.1623763398664298</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06308500469525739</v>
+        <v>0.06387137944636473</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04939291598901275</v>
+        <v>0.04765618823845969</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.05362397996906747</v>
+        <v>0.05342290934286013</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1225690021234216</v>
+        <v>0.1222899424946842</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05575906086523351</v>
+        <v>0.05562463885984417</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05893594736521406</v>
+        <v>0.05819570816072332</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06304074412534964</v>
+        <v>0.06121146244891155</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09977411871004802</v>
+        <v>0.1000574052146875</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07006689034571981</v>
+        <v>0.07161376734432183</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08365247039550597</v>
+        <v>0.08172346665327614</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.09358025872518383</v>
+        <v>0.09079960270590236</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2109404083581186</v>
+        <v>0.2122446747894241</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.09119374039657339</v>
+        <v>0.09149105060181488</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06827845696294252</v>
+        <v>0.06724612360312929</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.07548808957755332</v>
+        <v>0.07351144315939839</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1564905915839165</v>
+        <v>0.1561380207663801</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.07675583927101348</v>
+        <v>0.07759061517832258</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01316319101984809</v>
+        <v>0.01312715703227886</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01608880702331685</v>
+        <v>0.01574620321976559</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02915774426924548</v>
+        <v>0.03045453119976066</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02575983922257386</v>
+        <v>0.02541052345994852</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02846665825324644</v>
+        <v>0.02769062286923632</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02511913785356035</v>
+        <v>0.02513180653035681</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07603204506816991</v>
+        <v>0.0776228954352122</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03734516719455416</v>
+        <v>0.03613496556907844</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02219200619460129</v>
+        <v>0.02244707394036783</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02252113846282436</v>
+        <v>0.02200373364935856</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05596916463728563</v>
+        <v>0.05605101624413941</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03335975574106562</v>
+        <v>0.0333216207060445</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02687797126142201</v>
+        <v>0.02596332743265794</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02835617242227353</v>
+        <v>0.02953846747649786</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04643992161792829</v>
+        <v>0.04663401647004757</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04233019405736064</v>
+        <v>0.0426100389951085</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04866264251688009</v>
+        <v>0.04777399217929679</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04276746211807371</v>
+        <v>0.04295834805281847</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1036660588712203</v>
+        <v>0.104609714887211</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05291367339228206</v>
+        <v>0.05183731575485969</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03420903123125824</v>
+        <v>0.03348937905853366</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03291337589148189</v>
+        <v>0.03301686718624059</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07089278200177798</v>
+        <v>0.07105263585469228</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.04514089499898128</v>
+        <v>0.04463208178986838</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01334832933897481</v>
+        <v>0.013307970913963</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02210335017330657</v>
+        <v>0.02230680168824742</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01744365980207283</v>
+        <v>0.01704899391821818</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01475464779985499</v>
+        <v>0.01498054237936084</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.006295679614794153</v>
+        <v>0.006261610513781873</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01722370652171777</v>
+        <v>0.01701347088867428</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02896994852864129</v>
+        <v>0.02930691147755471</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01788851884623869</v>
+        <v>0.01944114923377234</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01217178042085846</v>
+        <v>0.01212068656509374</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02303645570254589</v>
+        <v>0.023205348680145</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02656579303306967</v>
+        <v>0.02725330699997448</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01975701922019512</v>
+        <v>0.01969184529532802</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03966039862060426</v>
+        <v>0.03730918619864443</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05990588098919166</v>
+        <v>0.06133539224726974</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04872282299547161</v>
+        <v>0.05203112561893982</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04107005352050871</v>
+        <v>0.04092239726638145</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02903600885674419</v>
+        <v>0.02903551266166469</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05300691163671118</v>
+        <v>0.05239271133967448</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06535644171117225</v>
+        <v>0.06787999008493857</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04154651003343739</v>
+        <v>0.0430537579411099</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02800434227862164</v>
+        <v>0.02918549167110119</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04856964789233983</v>
+        <v>0.04917259304678873</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05234554348390142</v>
+        <v>0.05360221810512954</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03638464539292589</v>
+        <v>0.03699876304940492</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.0453495592772059</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.03428845590062775</v>
+        <v>0.03428845590062776</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.04585544588936078</v>
@@ -1093,7 +1093,7 @@
         <v>0.1099613737136961</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.04802700603832936</v>
+        <v>0.04802700603832935</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.03694152896909649</v>
@@ -1105,7 +1105,7 @@
         <v>0.07837773933150513</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.04135447970977614</v>
+        <v>0.04135447970977615</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02206400712316557</v>
+        <v>0.02201620547531691</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02474112117112205</v>
+        <v>0.02447187629382971</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03871913170500587</v>
+        <v>0.0381783104957681</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02770168144168151</v>
+        <v>0.02806712164400324</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03919172628387023</v>
+        <v>0.03885182444049251</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04194633394385233</v>
+        <v>0.04235647890472338</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.09922650166398851</v>
+        <v>0.09876772199949603</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04234914195328043</v>
+        <v>0.04237460029167806</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03292772153812926</v>
+        <v>0.03226855478867166</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03562536305428068</v>
+        <v>0.03517893512720158</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07174636169042178</v>
+        <v>0.07127235132657328</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03725738234389067</v>
+        <v>0.03719630163022744</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03398913916228714</v>
+        <v>0.03433946607954604</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03736230114942805</v>
+        <v>0.03719779710421165</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05261239312178047</v>
+        <v>0.05239379869312262</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04174795259210283</v>
+        <v>0.04118757447977217</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05358341897763245</v>
+        <v>0.05426981072098378</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05635695144550342</v>
+        <v>0.05653287238487818</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1199098280197979</v>
+        <v>0.1215115226673534</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0544790723690106</v>
+        <v>0.05542445916664418</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04191629888241421</v>
+        <v>0.04195306218192644</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04471008668815283</v>
+        <v>0.04482045620090037</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08452561768114014</v>
+        <v>0.08464529486803589</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04597080626950866</v>
+        <v>0.0465709900215475</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>33909</v>
+        <v>34306</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>32412</v>
+        <v>31406</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>45573</v>
+        <v>45681</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>20291</v>
+        <v>20105</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>72884</v>
+        <v>72886</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>83532</v>
+        <v>82605</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>158178</v>
+        <v>161509</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>51858</v>
+        <v>52505</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>115917</v>
+        <v>111841</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>124002</v>
+        <v>123537</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>214374</v>
+        <v>213886</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>78094</v>
+        <v>77906</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>60806</v>
+        <v>60042</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>61442</v>
+        <v>59659</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>75264</v>
+        <v>75478</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>40536</v>
+        <v>41431</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>110012</v>
+        <v>107476</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>125191</v>
+        <v>121471</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>209814</v>
+        <v>211111</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>74965</v>
+        <v>75209</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>160238</v>
+        <v>157816</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>174562</v>
+        <v>169991</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>273703</v>
+        <v>273086</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>107502</v>
+        <v>108671</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>22291</v>
+        <v>22230</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>31598</v>
+        <v>30925</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>60543</v>
+        <v>63235</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>57459</v>
+        <v>56680</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>45196</v>
+        <v>43964</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>44154</v>
+        <v>44177</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>151175</v>
+        <v>154338</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>81091</v>
+        <v>78463</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>72814</v>
+        <v>73651</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>83818</v>
+        <v>81893</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>227497</v>
+        <v>227830</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>146848</v>
+        <v>146680</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>45516</v>
+        <v>43967</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>55690</v>
+        <v>58012</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>96427</v>
+        <v>96830</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>94420</v>
+        <v>95045</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>77260</v>
+        <v>75849</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>75177</v>
+        <v>75512</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>206119</v>
+        <v>207995</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>114896</v>
+        <v>112559</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>112243</v>
+        <v>109882</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>122496</v>
+        <v>122881</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>288157</v>
+        <v>288807</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>198708</v>
+        <v>196469</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7360</v>
+        <v>7338</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10636</v>
+        <v>10734</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9540</v>
+        <v>9324</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>10499</v>
+        <v>10660</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2999</v>
+        <v>2983</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7899</v>
+        <v>7803</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>15909</v>
+        <v>16094</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>13146</v>
+        <v>14287</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>12510</v>
+        <v>12458</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>21650</v>
+        <v>21809</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>29117</v>
+        <v>29870</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>28578</v>
+        <v>28484</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21869</v>
+        <v>20573</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>28826</v>
+        <v>29513</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>26646</v>
+        <v>28455</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>29225</v>
+        <v>29120</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>13833</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>24311</v>
+        <v>24029</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>35890</v>
+        <v>37276</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>30532</v>
+        <v>31639</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>28783</v>
+        <v>29997</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>45646</v>
+        <v>46213</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>57372</v>
+        <v>58749</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>52629</v>
+        <v>53517</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>72294</v>
+        <v>72137</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>84609</v>
+        <v>83688</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>130778</v>
+        <v>128952</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>97529</v>
+        <v>98815</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>132437</v>
+        <v>131288</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>149087</v>
+        <v>150545</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>350478</v>
+        <v>348857</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>157891</v>
+        <v>157986</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>219158</v>
+        <v>214771</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>248452</v>
+        <v>245338</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>495747</v>
+        <v>492472</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>270078</v>
+        <v>269636</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>111367</v>
+        <v>112515</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>127771</v>
+        <v>127208</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>177705</v>
+        <v>176966</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>146981</v>
+        <v>145008</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>181069</v>
+        <v>183388</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>200306</v>
+        <v>200931</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>423534</v>
+        <v>429191</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>203115</v>
+        <v>206639</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>278984</v>
+        <v>279229</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>311809</v>
+        <v>312578</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>584048</v>
+        <v>584875</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>333242</v>
+        <v>337593</v>
       </c>
     </row>
     <row r="20">
